--- a/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
@@ -650,10 +650,10 @@
         <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -686,19 +686,19 @@
         <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
         <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="AD2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
@@ -650,10 +650,10 @@
         <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -686,13 +686,13 @@
         <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
         <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
         <v>21</v>
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="AD2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
@@ -768,36 +768,90 @@
           <t>Leones del Norte</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.85</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>10</v>
+      </c>
+      <c r="W3" t="n">
+        <v>24</v>
+      </c>
+      <c r="X3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>110</v>
+      </c>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -830,36 +884,90 @@
           <t>Chacaritas</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>150</v>
+      </c>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -892,36 +1000,90 @@
           <t>Cerrito</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.8</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>100</v>
+      </c>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -954,36 +1116,92 @@
           <t>Oriental</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.57</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V6" t="n">
+        <v>10</v>
+      </c>
+      <c r="W6" t="n">
+        <v>27</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
@@ -656,10 +656,10 @@
         <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>1.18</v>
@@ -674,10 +674,10 @@
         <v>2.2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.53</v>
@@ -689,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
@@ -704,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>6.5</v>
@@ -769,88 +769,88 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="U3" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI3" t="n">
         <v>32</v>
       </c>
-      <c r="AI3" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -885,33 +885,33 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.42</v>
       </c>
-      <c r="M4" t="n">
+      <c r="Q4" t="n">
         <v>2.47</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.27</v>
       </c>
       <c r="R4" t="n">
         <v>2.18</v>
@@ -920,28 +920,28 @@
         <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="U4" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="V4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AB4" t="n">
         <v>23</v>
@@ -949,30 +949,32 @@
       <c r="AC4" t="n">
         <v>150</v>
       </c>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
       <c r="AE4" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI4" t="n">
         <v>100</v>
       </c>
-      <c r="AI4" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K8Dcw6PF</t>
+          <t>nDjP3tNH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -982,113 +984,59 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>URUGUAY - SEGUNDA DIVISION</t>
+          <t>NETHERLANDS - TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tacuarembo</t>
+          <t>Feyenoord U21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cerrito</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.8</v>
-      </c>
+          <t>Jong Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>100</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>55</v>
-      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gz76ypfS</t>
+          <t>K8Dcw6PF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1098,7 +1046,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1108,99 +1056,215 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Tacuarembo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oriental</t>
+          <t>Cerrito</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>1.98</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.57</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="O6" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="U6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gz76ypfS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>URUGUAY - SEGUNDA DIVISION</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oriental</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T7" t="n">
+        <v>8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>10</v>
+      </c>
+      <c r="W7" t="n">
+        <v>28</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF7" t="n">
         <v>11.75</v>
       </c>
-      <c r="V6" t="n">
-        <v>10</v>
-      </c>
-      <c r="W6" t="n">
-        <v>27</v>
-      </c>
-      <c r="X6" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>37</v>
+      <c r="AG7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.18</v>
@@ -704,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>6.5</v>
@@ -885,27 +885,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="N4" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="O4" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="P4" t="n">
         <v>1.42</v>
@@ -914,46 +914,46 @@
         <v>2.47</v>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="T4" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="V4" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W4" t="n">
         <v>9.25</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
         <v>45</v>
@@ -968,7 +968,7 @@
         <v>100</v>
       </c>
       <c r="AJ4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1088,10 +1088,10 @@
         <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="R6" t="n">
         <v>1.93</v>
@@ -1100,16 +1100,16 @@
         <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V6" t="n">
         <v>8.75</v>
       </c>
       <c r="W6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
@@ -1118,7 +1118,7 @@
         <v>35</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA6" t="n">
         <v>6.1</v>
@@ -1131,10 +1131,10 @@
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>13.5</v>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>2.47</v>
@@ -1192,16 +1192,16 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
@@ -1210,13 +1210,13 @@
         <v>2.57</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U7" t="n">
         <v>12.5</v>
@@ -1225,34 +1225,34 @@
         <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="n">
         <v>600</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>9.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>1.18</v>
@@ -704,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>6.5</v>
@@ -1184,39 +1184,39 @@
         <v>2.57</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="N7" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="O7" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P7" t="n">
         <v>1.39</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="T7" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="U7" t="n">
         <v>12.5</v>
@@ -1225,34 +1225,34 @@
         <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG7" t="n">
         <v>9.75</v>
@@ -1261,10 +1261,10 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
@@ -668,10 +668,10 @@
         <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-03.xlsx
@@ -775,18 +775,18 @@
         <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N3" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="O3" t="n">
         <v>1.42</v>
@@ -798,50 +798,50 @@
         <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U3" t="n">
         <v>10.75</v>
       </c>
       <c r="V3" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W3" t="n">
         <v>28</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="n">
         <v>50</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH3" t="n">
         <v>40</v>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1091,7 +1091,7 @@
         <v>1.47</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
         <v>1.93</v>
@@ -1100,16 +1100,16 @@
         <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U6" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
         <v>8.75</v>
       </c>
       <c r="W6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>19</v>
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
         <v>1.39</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R7" t="n">
         <v>1.78</v>
@@ -1216,7 +1216,7 @@
         <v>1.82</v>
       </c>
       <c r="T7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U7" t="n">
         <v>12.5</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1240,7 +1240,7 @@
         <v>6.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
         <v>75</v>
@@ -1249,19 +1249,19 @@
         <v>700</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
         <v>9.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>35</v>
